--- a/input/samples.xlsx
+++ b/input/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiller/R/250902_mNSC/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D16337F-8662-C340-8465-2121FFAA6E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86703A2-451E-9C42-B3C5-0BF45ADC7B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="26240" windowHeight="16360" xr2:uid="{870591EA-65CE-6344-A0E3-82EFB7AA9698}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="26240" windowHeight="16360" xr2:uid="{870591EA-65CE-6344-A0E3-82EFB7AA9698}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>PTEN</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Clone</t>
   </si>
   <si>
@@ -1956,6 +1953,9 @@
   </si>
   <si>
     <t>PDGFRA Total</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -5501,7 +5501,7 @@
     <tableColumn id="8" xr3:uid="{FC376D3D-D1DA-AA47-AE97-E7FB941621CE}" name="Host"/>
     <tableColumn id="9" xr3:uid="{CB95CB04-53A1-E443-B06B-77F736A4B359}" name="CDKN2AB"/>
     <tableColumn id="10" xr3:uid="{84B18A35-F196-AF4F-B88C-557B8075FA2A}" name="PTEN"/>
-    <tableColumn id="11" xr3:uid="{83E97F10-4A18-1749-96D5-92A43E01E5AD}" name="Type"/>
+    <tableColumn id="11" xr3:uid="{83E97F10-4A18-1749-96D5-92A43E01E5AD}" name="Model"/>
     <tableColumn id="12" xr3:uid="{4403E319-7753-CC40-A817-04F304A4287A}" name="Clone"/>
     <tableColumn id="13" xr3:uid="{1E54A475-668E-E04B-9EC9-422C0CB73B8E}" name="Replicate"/>
     <tableColumn id="14" xr3:uid="{1B2C1A70-5482-3146-B1C9-7D6E8A600F45}" name="OriginalOrder"/>
@@ -5835,8 +5835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DCFF40-CB8B-A449-801E-B17EDF8865CB}">
   <dimension ref="A1:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K1:K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5895,69 +5895,69 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>643</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2">
         <v>85</v>
@@ -5981,42 +5981,42 @@
         <v>8</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -6025,7 +6025,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -6040,51 +6040,51 @@
         <v>9</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
         <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
       </c>
       <c r="P4">
         <v>35</v>
@@ -6099,42 +6099,42 @@
         <v>3</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
         <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -6143,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P5">
         <v>70</v>
@@ -6158,42 +6158,42 @@
         <v>6</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
       <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -6202,7 +6202,7 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P6">
         <v>25</v>
@@ -6217,42 +6217,42 @@
         <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
       <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
       <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -6261,7 +6261,7 @@
         <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P7">
         <v>54</v>
@@ -6276,42 +6276,42 @@
         <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>64</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>66</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -6320,7 +6320,7 @@
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P8">
         <v>41</v>
@@ -6335,42 +6335,42 @@
         <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
       <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
       <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -6379,7 +6379,7 @@
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P9">
         <v>99</v>
@@ -6394,42 +6394,42 @@
         <v>9</v>
       </c>
       <c r="T9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
       <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
       <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -6438,7 +6438,7 @@
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P10">
         <v>16</v>
@@ -6453,42 +6453,42 @@
         <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>81</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>82</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>83</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
         <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>85</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P11">
         <v>64</v>
@@ -6512,42 +6512,42 @@
         <v>6</v>
       </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
         <v>87</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>89</v>
       </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
       <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
         <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s">
-        <v>85</v>
       </c>
       <c r="M12">
         <v>2</v>
@@ -6556,7 +6556,7 @@
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P12">
         <v>68</v>
@@ -6571,42 +6571,42 @@
         <v>6</v>
       </c>
       <c r="T12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>94</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>95</v>
       </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
       <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
         <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>85</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -6615,7 +6615,7 @@
         <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P13">
         <v>55</v>
@@ -6630,42 +6630,42 @@
         <v>5</v>
       </c>
       <c r="T13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
         <v>99</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
         <v>100</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>101</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
         <v>102</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>103</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -6674,7 +6674,7 @@
         <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P14">
         <v>32</v>
@@ -6689,42 +6689,42 @@
         <v>3</v>
       </c>
       <c r="T14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
         <v>106</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>107</v>
       </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
         <v>27</v>
       </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M15">
         <v>2</v>
@@ -6733,7 +6733,7 @@
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P15">
         <v>115</v>
@@ -6748,42 +6748,42 @@
         <v>10</v>
       </c>
       <c r="T15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
         <v>111</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>112</v>
       </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
         <v>27</v>
       </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -6792,7 +6792,7 @@
         <v>15</v>
       </c>
       <c r="O16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P16">
         <v>4</v>
@@ -6807,42 +6807,42 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
         <v>115</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
         <v>116</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>117</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>119</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -6851,7 +6851,7 @@
         <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P17">
         <v>72</v>
@@ -6866,42 +6866,42 @@
         <v>6</v>
       </c>
       <c r="T17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
         <v>122</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
         <v>123</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>124</v>
       </c>
-      <c r="F18" t="s">
-        <v>125</v>
-      </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
         <v>27</v>
       </c>
-      <c r="J18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
       <c r="L18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -6910,7 +6910,7 @@
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P18">
         <v>81</v>
@@ -6925,42 +6925,42 @@
         <v>7</v>
       </c>
       <c r="T18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
         <v>127</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>129</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
-      </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
         <v>27</v>
       </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" t="s">
-        <v>28</v>
-      </c>
       <c r="L19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M19">
         <v>3</v>
@@ -6969,7 +6969,7 @@
         <v>18</v>
       </c>
       <c r="O19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P19">
         <v>93</v>
@@ -6984,42 +6984,42 @@
         <v>8</v>
       </c>
       <c r="T19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" t="s">
         <v>133</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
         <v>134</v>
       </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>135</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>136</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
         <v>137</v>
-      </c>
-      <c r="H20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s">
-        <v>138</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -7028,7 +7028,7 @@
         <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P20">
         <v>18</v>
@@ -7043,42 +7043,42 @@
         <v>2</v>
       </c>
       <c r="T20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
         <v>140</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
         <v>141</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>142</v>
       </c>
-      <c r="F21" t="s">
-        <v>143</v>
-      </c>
       <c r="G21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
         <v>137</v>
-      </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" t="s">
-        <v>138</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -7087,7 +7087,7 @@
         <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P21">
         <v>73</v>
@@ -7102,42 +7102,42 @@
         <v>7</v>
       </c>
       <c r="T21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="s">
         <v>145</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
         <v>146</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>147</v>
       </c>
-      <c r="F22" t="s">
-        <v>148</v>
-      </c>
       <c r="G22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
         <v>137</v>
-      </c>
-      <c r="H22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
-        <v>138</v>
       </c>
       <c r="M22">
         <v>3</v>
@@ -7146,7 +7146,7 @@
         <v>21</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P22">
         <v>106</v>
@@ -7161,42 +7161,42 @@
         <v>9</v>
       </c>
       <c r="T22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
         <v>150</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
         <v>151</v>
       </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>152</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
         <v>153</v>
-      </c>
-      <c r="G23" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" t="s">
-        <v>154</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P23">
         <v>20</v>
@@ -7220,42 +7220,42 @@
         <v>2</v>
       </c>
       <c r="T23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
         <v>156</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
         <v>157</v>
       </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>158</v>
       </c>
-      <c r="F24" t="s">
-        <v>159</v>
-      </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s">
         <v>27</v>
       </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
       <c r="L24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M24">
         <v>2</v>
@@ -7264,7 +7264,7 @@
         <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P24">
         <v>87</v>
@@ -7279,42 +7279,42 @@
         <v>8</v>
       </c>
       <c r="T24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
         <v>161</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
         <v>162</v>
       </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>163</v>
       </c>
-      <c r="F25" t="s">
-        <v>164</v>
-      </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
         <v>27</v>
       </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
       <c r="L25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -7323,7 +7323,7 @@
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P25">
         <v>9</v>
@@ -7338,42 +7338,42 @@
         <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
         <v>166</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
         <v>167</v>
       </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>168</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
         <v>169</v>
-      </c>
-      <c r="G26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" t="s">
-        <v>170</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -7382,7 +7382,7 @@
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P26">
         <v>8</v>
@@ -7397,42 +7397,42 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
         <v>172</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
         <v>173</v>
       </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>174</v>
       </c>
-      <c r="F27" t="s">
-        <v>175</v>
-      </c>
       <c r="G27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s">
         <v>27</v>
       </c>
-      <c r="J27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" t="s">
-        <v>28</v>
-      </c>
       <c r="L27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M27">
         <v>2</v>
@@ -7441,7 +7441,7 @@
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P27">
         <v>22</v>
@@ -7456,42 +7456,42 @@
         <v>2</v>
       </c>
       <c r="T27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
         <v>178</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>179</v>
       </c>
-      <c r="F28" t="s">
-        <v>180</v>
-      </c>
       <c r="G28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
         <v>27</v>
       </c>
-      <c r="J28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" t="s">
-        <v>28</v>
-      </c>
       <c r="L28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M28">
         <v>3</v>
@@ -7500,7 +7500,7 @@
         <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P28">
         <v>28</v>
@@ -7515,42 +7515,42 @@
         <v>3</v>
       </c>
       <c r="T28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s">
         <v>182</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
         <v>183</v>
       </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>184</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
         <v>185</v>
       </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
         <v>186</v>
-      </c>
-      <c r="I29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" t="s">
-        <v>187</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -7559,7 +7559,7 @@
         <v>28</v>
       </c>
       <c r="O29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P29">
         <v>59</v>
@@ -7574,42 +7574,42 @@
         <v>5</v>
       </c>
       <c r="T29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" t="s">
         <v>189</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
         <v>190</v>
       </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>191</v>
       </c>
-      <c r="F30" t="s">
-        <v>192</v>
-      </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
         <v>186</v>
-      </c>
-      <c r="I30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" t="s">
-        <v>187</v>
       </c>
       <c r="M30">
         <v>2</v>
@@ -7618,7 +7618,7 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P30">
         <v>39</v>
@@ -7633,42 +7633,42 @@
         <v>4</v>
       </c>
       <c r="T30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" t="s">
         <v>194</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
         <v>195</v>
       </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>196</v>
       </c>
-      <c r="F31" t="s">
-        <v>197</v>
-      </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
         <v>186</v>
-      </c>
-      <c r="I31" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" t="s">
-        <v>187</v>
       </c>
       <c r="M31">
         <v>3</v>
@@ -7677,7 +7677,7 @@
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P31">
         <v>31</v>
@@ -7692,42 +7692,42 @@
         <v>3</v>
       </c>
       <c r="T31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s">
         <v>199</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
         <v>200</v>
       </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>201</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
         <v>202</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" t="s">
-        <v>186</v>
-      </c>
-      <c r="I32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" t="s">
-        <v>203</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>31</v>
       </c>
       <c r="O32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P32">
         <v>63</v>
@@ -7751,42 +7751,42 @@
         <v>6</v>
       </c>
       <c r="T32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" t="s">
         <v>205</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
         <v>206</v>
       </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>207</v>
       </c>
-      <c r="F33" t="s">
-        <v>208</v>
-      </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" t="s">
         <v>27</v>
       </c>
-      <c r="J33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" t="s">
-        <v>28</v>
-      </c>
       <c r="L33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M33">
         <v>2</v>
@@ -7795,7 +7795,7 @@
         <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P33">
         <v>33</v>
@@ -7810,42 +7810,42 @@
         <v>3</v>
       </c>
       <c r="T33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" t="s">
         <v>210</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
         <v>211</v>
       </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>212</v>
       </c>
-      <c r="F34" t="s">
-        <v>213</v>
-      </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="s">
         <v>27</v>
       </c>
-      <c r="J34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" t="s">
-        <v>28</v>
-      </c>
       <c r="L34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M34">
         <v>3</v>
@@ -7854,7 +7854,7 @@
         <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P34">
         <v>47</v>
@@ -7869,42 +7869,42 @@
         <v>4</v>
       </c>
       <c r="T34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" t="s">
         <v>215</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
         <v>216</v>
       </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>217</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
         <v>218</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s">
-        <v>186</v>
-      </c>
-      <c r="I35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" t="s">
-        <v>219</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -7913,7 +7913,7 @@
         <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P35">
         <v>113</v>
@@ -7928,42 +7928,42 @@
         <v>10</v>
       </c>
       <c r="T35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" t="s">
         <v>221</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
         <v>222</v>
       </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>223</v>
       </c>
-      <c r="F36" t="s">
-        <v>224</v>
-      </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
         <v>27</v>
       </c>
-      <c r="J36" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" t="s">
-        <v>28</v>
-      </c>
       <c r="L36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M36">
         <v>2</v>
@@ -7972,7 +7972,7 @@
         <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P36">
         <v>96</v>
@@ -7987,42 +7987,42 @@
         <v>8</v>
       </c>
       <c r="T36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" t="s">
         <v>226</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
         <v>227</v>
       </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>228</v>
       </c>
-      <c r="F37" t="s">
-        <v>229</v>
-      </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="s">
         <v>27</v>
       </c>
-      <c r="J37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" t="s">
-        <v>28</v>
-      </c>
       <c r="L37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M37">
         <v>3</v>
@@ -8031,7 +8031,7 @@
         <v>36</v>
       </c>
       <c r="O37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P37">
         <v>10</v>
@@ -8046,42 +8046,42 @@
         <v>1</v>
       </c>
       <c r="T37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" t="s">
         <v>231</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
         <v>232</v>
       </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>233</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" t="s">
+        <v>185</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
         <v>234</v>
-      </c>
-      <c r="G38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" t="s">
-        <v>186</v>
-      </c>
-      <c r="I38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" t="s">
-        <v>235</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -8090,7 +8090,7 @@
         <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P38">
         <v>62</v>
@@ -8105,42 +8105,42 @@
         <v>6</v>
       </c>
       <c r="T38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" t="s">
         <v>238</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
         <v>239</v>
       </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>240</v>
       </c>
-      <c r="F39" t="s">
-        <v>241</v>
-      </c>
       <c r="G39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" t="s">
         <v>27</v>
       </c>
-      <c r="J39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" t="s">
-        <v>28</v>
-      </c>
       <c r="L39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M39">
         <v>2</v>
@@ -8149,7 +8149,7 @@
         <v>38</v>
       </c>
       <c r="O39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P39">
         <v>97</v>
@@ -8164,42 +8164,42 @@
         <v>9</v>
       </c>
       <c r="T39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" t="s">
         <v>243</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
         <v>244</v>
       </c>
-      <c r="D40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>245</v>
       </c>
-      <c r="F40" t="s">
-        <v>246</v>
-      </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s">
         <v>27</v>
       </c>
-      <c r="J40" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" t="s">
-        <v>28</v>
-      </c>
       <c r="L40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -8208,7 +8208,7 @@
         <v>39</v>
       </c>
       <c r="O40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P40">
         <v>92</v>
@@ -8223,42 +8223,42 @@
         <v>8</v>
       </c>
       <c r="T40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" t="s">
         <v>248</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
         <v>249</v>
       </c>
-      <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>250</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
         <v>251</v>
-      </c>
-      <c r="G41" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" t="s">
-        <v>186</v>
-      </c>
-      <c r="I41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" t="s">
-        <v>27</v>
-      </c>
-      <c r="K41" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" t="s">
-        <v>252</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -8267,7 +8267,7 @@
         <v>40</v>
       </c>
       <c r="O41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P41">
         <v>50</v>
@@ -8282,42 +8282,42 @@
         <v>5</v>
       </c>
       <c r="T41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" t="s">
         <v>254</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
         <v>255</v>
       </c>
-      <c r="D42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>256</v>
       </c>
-      <c r="F42" t="s">
-        <v>257</v>
-      </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" t="s">
         <v>27</v>
       </c>
-      <c r="J42" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" t="s">
-        <v>28</v>
-      </c>
       <c r="L42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M42">
         <v>2</v>
@@ -8326,7 +8326,7 @@
         <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P42">
         <v>89</v>
@@ -8341,42 +8341,42 @@
         <v>8</v>
       </c>
       <c r="T42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B43" t="s">
         <v>259</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
         <v>260</v>
       </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>261</v>
       </c>
-      <c r="F43" t="s">
-        <v>262</v>
-      </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" t="s">
         <v>27</v>
       </c>
-      <c r="J43" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" t="s">
-        <v>28</v>
-      </c>
       <c r="L43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M43">
         <v>3</v>
@@ -8385,7 +8385,7 @@
         <v>42</v>
       </c>
       <c r="O43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P43">
         <v>56</v>
@@ -8400,42 +8400,42 @@
         <v>5</v>
       </c>
       <c r="T43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" t="s">
         <v>264</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
         <v>265</v>
       </c>
-      <c r="D44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>266</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" t="s">
+        <v>185</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
         <v>267</v>
-      </c>
-      <c r="G44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" t="s">
-        <v>186</v>
-      </c>
-      <c r="I44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" t="s">
-        <v>268</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -8444,7 +8444,7 @@
         <v>43</v>
       </c>
       <c r="O44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P44">
         <v>38</v>
@@ -8459,42 +8459,42 @@
         <v>4</v>
       </c>
       <c r="T44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" t="s">
         <v>270</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
         <v>271</v>
       </c>
-      <c r="D45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>272</v>
       </c>
-      <c r="F45" t="s">
-        <v>273</v>
-      </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s">
         <v>27</v>
       </c>
-      <c r="J45" t="s">
-        <v>27</v>
-      </c>
-      <c r="K45" t="s">
-        <v>28</v>
-      </c>
       <c r="L45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M45">
         <v>2</v>
@@ -8503,7 +8503,7 @@
         <v>44</v>
       </c>
       <c r="O45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P45">
         <v>2</v>
@@ -8518,42 +8518,42 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" t="s">
         <v>275</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
         <v>276</v>
       </c>
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>277</v>
       </c>
-      <c r="F46" t="s">
-        <v>278</v>
-      </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s">
         <v>27</v>
       </c>
-      <c r="J46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" t="s">
-        <v>28</v>
-      </c>
       <c r="L46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M46">
         <v>3</v>
@@ -8562,7 +8562,7 @@
         <v>45</v>
       </c>
       <c r="O46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P46">
         <v>29</v>
@@ -8577,42 +8577,42 @@
         <v>3</v>
       </c>
       <c r="T46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47" t="s">
         <v>280</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
         <v>281</v>
       </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>282</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" t="s">
+        <v>185</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
         <v>283</v>
-      </c>
-      <c r="G47" t="s">
-        <v>137</v>
-      </c>
-      <c r="H47" t="s">
-        <v>186</v>
-      </c>
-      <c r="I47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" t="s">
-        <v>284</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -8621,7 +8621,7 @@
         <v>46</v>
       </c>
       <c r="O47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P47">
         <v>109</v>
@@ -8636,42 +8636,42 @@
         <v>10</v>
       </c>
       <c r="T47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" t="s">
         <v>286</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
         <v>287</v>
       </c>
-      <c r="D48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>288</v>
       </c>
-      <c r="F48" t="s">
-        <v>289</v>
-      </c>
       <c r="G48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" t="s">
         <v>27</v>
       </c>
-      <c r="J48" t="s">
-        <v>27</v>
-      </c>
-      <c r="K48" t="s">
-        <v>28</v>
-      </c>
       <c r="L48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M48">
         <v>2</v>
@@ -8680,7 +8680,7 @@
         <v>47</v>
       </c>
       <c r="O48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P48">
         <v>69</v>
@@ -8695,42 +8695,42 @@
         <v>6</v>
       </c>
       <c r="T48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B49" t="s">
         <v>291</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
         <v>292</v>
       </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>293</v>
       </c>
-      <c r="F49" t="s">
-        <v>294</v>
-      </c>
       <c r="G49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" t="s">
         <v>27</v>
       </c>
-      <c r="J49" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" t="s">
-        <v>28</v>
-      </c>
       <c r="L49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M49">
         <v>3</v>
@@ -8739,7 +8739,7 @@
         <v>48</v>
       </c>
       <c r="O49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P49">
         <v>15</v>
@@ -8754,42 +8754,42 @@
         <v>2</v>
       </c>
       <c r="T49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" t="s">
         <v>296</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
         <v>297</v>
       </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>298</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" t="s">
+        <v>185</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
         <v>299</v>
-      </c>
-      <c r="G50" t="s">
-        <v>137</v>
-      </c>
-      <c r="H50" t="s">
-        <v>186</v>
-      </c>
-      <c r="I50" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" t="s">
-        <v>27</v>
-      </c>
-      <c r="K50" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" t="s">
-        <v>300</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -8798,7 +8798,7 @@
         <v>49</v>
       </c>
       <c r="O50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P50">
         <v>30</v>
@@ -8813,42 +8813,42 @@
         <v>3</v>
       </c>
       <c r="T50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" t="s">
         <v>302</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
         <v>303</v>
       </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>304</v>
       </c>
-      <c r="F51" t="s">
-        <v>305</v>
-      </c>
       <c r="G51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" t="s">
         <v>27</v>
       </c>
-      <c r="J51" t="s">
-        <v>27</v>
-      </c>
-      <c r="K51" t="s">
-        <v>28</v>
-      </c>
       <c r="L51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -8857,7 +8857,7 @@
         <v>50</v>
       </c>
       <c r="O51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P51">
         <v>42</v>
@@ -8872,42 +8872,42 @@
         <v>4</v>
       </c>
       <c r="T51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" t="s">
         <v>307</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
         <v>308</v>
       </c>
-      <c r="D52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>309</v>
       </c>
-      <c r="F52" t="s">
-        <v>310</v>
-      </c>
       <c r="G52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" t="s">
         <v>27</v>
       </c>
-      <c r="J52" t="s">
-        <v>27</v>
-      </c>
-      <c r="K52" t="s">
-        <v>28</v>
-      </c>
       <c r="L52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M52">
         <v>3</v>
@@ -8916,7 +8916,7 @@
         <v>51</v>
       </c>
       <c r="O52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P52">
         <v>105</v>
@@ -8931,42 +8931,42 @@
         <v>9</v>
       </c>
       <c r="T52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>311</v>
+      </c>
+      <c r="B53" t="s">
         <v>312</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
         <v>313</v>
       </c>
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>314</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" t="s">
+        <v>185</v>
+      </c>
+      <c r="I53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
         <v>315</v>
-      </c>
-      <c r="G53" t="s">
-        <v>137</v>
-      </c>
-      <c r="H53" t="s">
-        <v>186</v>
-      </c>
-      <c r="I53" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" t="s">
-        <v>27</v>
-      </c>
-      <c r="K53" t="s">
-        <v>28</v>
-      </c>
-      <c r="L53" t="s">
-        <v>316</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -8975,7 +8975,7 @@
         <v>52</v>
       </c>
       <c r="O53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P53">
         <v>53</v>
@@ -8990,42 +8990,42 @@
         <v>5</v>
       </c>
       <c r="T53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>317</v>
+      </c>
+      <c r="B54" t="s">
         <v>318</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
         <v>319</v>
       </c>
-      <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>320</v>
       </c>
-      <c r="F54" t="s">
-        <v>321</v>
-      </c>
       <c r="G54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" t="s">
         <v>27</v>
       </c>
-      <c r="J54" t="s">
-        <v>27</v>
-      </c>
-      <c r="K54" t="s">
-        <v>28</v>
-      </c>
       <c r="L54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M54">
         <v>2</v>
@@ -9034,7 +9034,7 @@
         <v>53</v>
       </c>
       <c r="O54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P54">
         <v>75</v>
@@ -9049,42 +9049,42 @@
         <v>7</v>
       </c>
       <c r="T54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" t="s">
         <v>323</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
         <v>324</v>
       </c>
-      <c r="D55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>325</v>
       </c>
-      <c r="F55" t="s">
-        <v>326</v>
-      </c>
       <c r="G55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" t="s">
         <v>27</v>
       </c>
-      <c r="J55" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" t="s">
-        <v>28</v>
-      </c>
       <c r="L55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M55">
         <v>3</v>
@@ -9093,7 +9093,7 @@
         <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P55">
         <v>111</v>
@@ -9108,42 +9108,42 @@
         <v>10</v>
       </c>
       <c r="T55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>327</v>
+      </c>
+      <c r="B56" t="s">
         <v>328</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
         <v>329</v>
       </c>
-      <c r="D56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>330</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" t="s">
         <v>331</v>
       </c>
-      <c r="G56" t="s">
-        <v>137</v>
-      </c>
-      <c r="H56" t="s">
-        <v>186</v>
-      </c>
-      <c r="I56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" t="s">
-        <v>27</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>332</v>
-      </c>
-      <c r="L56" t="s">
-        <v>333</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -9152,7 +9152,7 @@
         <v>55</v>
       </c>
       <c r="O56" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P56">
         <v>102</v>
@@ -9167,42 +9167,42 @@
         <v>9</v>
       </c>
       <c r="T56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>334</v>
+      </c>
+      <c r="B57" t="s">
         <v>335</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
         <v>336</v>
       </c>
-      <c r="D57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>337</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" t="s">
+        <v>185</v>
+      </c>
+      <c r="I57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" t="s">
         <v>338</v>
       </c>
-      <c r="G57" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" t="s">
-        <v>186</v>
-      </c>
-      <c r="I57" t="s">
-        <v>27</v>
-      </c>
-      <c r="J57" t="s">
-        <v>27</v>
-      </c>
-      <c r="K57" t="s">
-        <v>339</v>
-      </c>
       <c r="L57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -9211,7 +9211,7 @@
         <v>56</v>
       </c>
       <c r="O57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P57">
         <v>12</v>
@@ -9226,42 +9226,42 @@
         <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>340</v>
+      </c>
+      <c r="B58" t="s">
         <v>341</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
         <v>342</v>
       </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>343</v>
       </c>
-      <c r="F58" t="s">
-        <v>344</v>
-      </c>
       <c r="G58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M58">
         <v>3</v>
@@ -9270,7 +9270,7 @@
         <v>57</v>
       </c>
       <c r="O58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P58">
         <v>71</v>
@@ -9285,42 +9285,42 @@
         <v>6</v>
       </c>
       <c r="T58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" t="s">
         <v>346</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
         <v>347</v>
       </c>
-      <c r="D59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>348</v>
       </c>
-      <c r="F59" t="s">
-        <v>349</v>
-      </c>
       <c r="G59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -9329,7 +9329,7 @@
         <v>58</v>
       </c>
       <c r="O59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P59">
         <v>66</v>
@@ -9344,42 +9344,42 @@
         <v>6</v>
       </c>
       <c r="T59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>350</v>
+      </c>
+      <c r="B60" t="s">
         <v>351</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
         <v>352</v>
       </c>
-      <c r="D60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>353</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H60" t="s">
+        <v>185</v>
+      </c>
+      <c r="I60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" t="s">
         <v>354</v>
       </c>
-      <c r="G60" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" t="s">
-        <v>186</v>
-      </c>
-      <c r="I60" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" t="s">
-        <v>27</v>
-      </c>
-      <c r="K60" t="s">
-        <v>355</v>
-      </c>
       <c r="L60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M60">
         <v>2</v>
@@ -9388,7 +9388,7 @@
         <v>59</v>
       </c>
       <c r="O60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P60">
         <v>49</v>
@@ -9403,42 +9403,42 @@
         <v>5</v>
       </c>
       <c r="T60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>356</v>
+      </c>
+      <c r="B61" t="s">
         <v>357</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
         <v>358</v>
       </c>
-      <c r="D61" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>359</v>
       </c>
-      <c r="F61" t="s">
-        <v>360</v>
-      </c>
       <c r="G61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M61">
         <v>3</v>
@@ -9447,7 +9447,7 @@
         <v>60</v>
       </c>
       <c r="O61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P61">
         <v>78</v>
@@ -9462,42 +9462,42 @@
         <v>7</v>
       </c>
       <c r="T61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B62" t="s">
         <v>362</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
         <v>363</v>
       </c>
-      <c r="D62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>364</v>
       </c>
-      <c r="F62" t="s">
-        <v>365</v>
-      </c>
       <c r="G62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -9506,7 +9506,7 @@
         <v>61</v>
       </c>
       <c r="O62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P62">
         <v>67</v>
@@ -9521,42 +9521,42 @@
         <v>6</v>
       </c>
       <c r="T62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
         <v>367</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
         <v>368</v>
       </c>
-      <c r="D63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>369</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" t="s">
+        <v>185</v>
+      </c>
+      <c r="I63" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" t="s">
+        <v>331</v>
+      </c>
+      <c r="L63" t="s">
         <v>370</v>
-      </c>
-      <c r="G63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H63" t="s">
-        <v>186</v>
-      </c>
-      <c r="I63" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" t="s">
-        <v>27</v>
-      </c>
-      <c r="K63" t="s">
-        <v>332</v>
-      </c>
-      <c r="L63" t="s">
-        <v>371</v>
       </c>
       <c r="M63">
         <v>2</v>
@@ -9565,7 +9565,7 @@
         <v>62</v>
       </c>
       <c r="O63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P63">
         <v>44</v>
@@ -9580,42 +9580,42 @@
         <v>4</v>
       </c>
       <c r="T63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
         <v>373</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
         <v>374</v>
       </c>
-      <c r="D64" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>375</v>
       </c>
-      <c r="F64" t="s">
-        <v>376</v>
-      </c>
       <c r="G64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M64">
         <v>3</v>
@@ -9624,7 +9624,7 @@
         <v>63</v>
       </c>
       <c r="O64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P64">
         <v>82</v>
@@ -9639,42 +9639,42 @@
         <v>7</v>
       </c>
       <c r="T64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>377</v>
+      </c>
+      <c r="B65" t="s">
         <v>378</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
         <v>379</v>
       </c>
-      <c r="D65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>380</v>
       </c>
-      <c r="F65" t="s">
-        <v>381</v>
-      </c>
       <c r="G65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -9683,7 +9683,7 @@
         <v>64</v>
       </c>
       <c r="O65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P65">
         <v>52</v>
@@ -9698,42 +9698,42 @@
         <v>5</v>
       </c>
       <c r="T65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>382</v>
+      </c>
+      <c r="B66" t="s">
         <v>383</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
         <v>384</v>
       </c>
-      <c r="D66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>385</v>
       </c>
-      <c r="F66" t="s">
-        <v>386</v>
-      </c>
       <c r="G66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K66" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M66">
         <v>2</v>
@@ -9742,7 +9742,7 @@
         <v>65</v>
       </c>
       <c r="O66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P66">
         <v>6</v>
@@ -9757,42 +9757,42 @@
         <v>1</v>
       </c>
       <c r="T66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>387</v>
+      </c>
+      <c r="B67" t="s">
         <v>388</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
         <v>389</v>
       </c>
-      <c r="D67" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>390</v>
       </c>
-      <c r="F67" t="s">
-        <v>391</v>
-      </c>
       <c r="G67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M67">
         <v>3</v>
@@ -9801,7 +9801,7 @@
         <v>66</v>
       </c>
       <c r="O67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P67">
         <v>76</v>
@@ -9816,42 +9816,42 @@
         <v>10</v>
       </c>
       <c r="T67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>392</v>
+      </c>
+      <c r="B68" t="s">
         <v>393</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
         <v>394</v>
       </c>
-      <c r="D68" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>395</v>
       </c>
-      <c r="F68" t="s">
-        <v>396</v>
-      </c>
       <c r="G68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -9860,7 +9860,7 @@
         <v>67</v>
       </c>
       <c r="O68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P68">
         <v>5</v>
@@ -9875,42 +9875,42 @@
         <v>1</v>
       </c>
       <c r="T68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>397</v>
+      </c>
+      <c r="B69" t="s">
         <v>398</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
         <v>399</v>
       </c>
-      <c r="D69" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>400</v>
       </c>
-      <c r="F69" t="s">
-        <v>401</v>
-      </c>
       <c r="G69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M69">
         <v>2</v>
@@ -9919,7 +9919,7 @@
         <v>68</v>
       </c>
       <c r="O69" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P69">
         <v>7</v>
@@ -9934,42 +9934,42 @@
         <v>1</v>
       </c>
       <c r="T69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>402</v>
+      </c>
+      <c r="B70" t="s">
         <v>403</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
         <v>404</v>
       </c>
-      <c r="D70" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>405</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
+        <v>136</v>
+      </c>
+      <c r="H70" t="s">
+        <v>185</v>
+      </c>
+      <c r="I70" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K70" t="s">
+        <v>331</v>
+      </c>
+      <c r="L70" t="s">
         <v>406</v>
-      </c>
-      <c r="G70" t="s">
-        <v>137</v>
-      </c>
-      <c r="H70" t="s">
-        <v>186</v>
-      </c>
-      <c r="I70" t="s">
-        <v>27</v>
-      </c>
-      <c r="J70" t="s">
-        <v>27</v>
-      </c>
-      <c r="K70" t="s">
-        <v>332</v>
-      </c>
-      <c r="L70" t="s">
-        <v>407</v>
       </c>
       <c r="M70">
         <v>3</v>
@@ -9978,7 +9978,7 @@
         <v>69</v>
       </c>
       <c r="O70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P70">
         <v>90</v>
@@ -9993,42 +9993,42 @@
         <v>8</v>
       </c>
       <c r="T70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>408</v>
+      </c>
+      <c r="B71" t="s">
         <v>409</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
         <v>410</v>
       </c>
-      <c r="D71" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>411</v>
       </c>
-      <c r="F71" t="s">
-        <v>412</v>
-      </c>
       <c r="G71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L71" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -10037,7 +10037,7 @@
         <v>70</v>
       </c>
       <c r="O71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P71">
         <v>103</v>
@@ -10052,42 +10052,42 @@
         <v>9</v>
       </c>
       <c r="T71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>413</v>
+      </c>
+      <c r="B72" t="s">
         <v>414</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
         <v>415</v>
       </c>
-      <c r="D72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>416</v>
       </c>
-      <c r="F72" t="s">
-        <v>417</v>
-      </c>
       <c r="G72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K72" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M72">
         <v>2</v>
@@ -10096,7 +10096,7 @@
         <v>71</v>
       </c>
       <c r="O72" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P72">
         <v>40</v>
@@ -10111,42 +10111,42 @@
         <v>4</v>
       </c>
       <c r="T72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>418</v>
+      </c>
+      <c r="B73" t="s">
         <v>419</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
         <v>420</v>
       </c>
-      <c r="D73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>421</v>
       </c>
-      <c r="F73" t="s">
-        <v>422</v>
-      </c>
       <c r="G73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K73" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L73" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M73">
         <v>3</v>
@@ -10155,7 +10155,7 @@
         <v>72</v>
       </c>
       <c r="O73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P73">
         <v>61</v>
@@ -10170,42 +10170,42 @@
         <v>6</v>
       </c>
       <c r="T73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>423</v>
+      </c>
+      <c r="B74" t="s">
         <v>424</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
         <v>425</v>
       </c>
-      <c r="D74" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>426</v>
       </c>
-      <c r="F74" t="s">
-        <v>427</v>
-      </c>
       <c r="G74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L74" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -10214,7 +10214,7 @@
         <v>73</v>
       </c>
       <c r="O74" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P74">
         <v>95</v>
@@ -10229,42 +10229,42 @@
         <v>8</v>
       </c>
       <c r="T74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>428</v>
+      </c>
+      <c r="B75" t="s">
         <v>429</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
         <v>430</v>
       </c>
-      <c r="D75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>431</v>
       </c>
-      <c r="F75" t="s">
-        <v>432</v>
-      </c>
       <c r="G75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L75" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M75">
         <v>2</v>
@@ -10273,7 +10273,7 @@
         <v>74</v>
       </c>
       <c r="O75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P75">
         <v>57</v>
@@ -10288,42 +10288,42 @@
         <v>5</v>
       </c>
       <c r="T75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>433</v>
+      </c>
+      <c r="B76" t="s">
         <v>434</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
         <v>435</v>
       </c>
-      <c r="D76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>436</v>
       </c>
-      <c r="F76" t="s">
-        <v>437</v>
-      </c>
       <c r="G76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L76" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M76">
         <v>3</v>
@@ -10332,7 +10332,7 @@
         <v>75</v>
       </c>
       <c r="O76" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P76">
         <v>51</v>
@@ -10347,42 +10347,42 @@
         <v>5</v>
       </c>
       <c r="T76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>438</v>
+      </c>
+      <c r="B77" t="s">
         <v>439</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
         <v>440</v>
       </c>
-      <c r="D77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>441</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s">
+        <v>185</v>
+      </c>
+      <c r="I77" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" t="s">
+        <v>26</v>
+      </c>
+      <c r="K77" t="s">
+        <v>331</v>
+      </c>
+      <c r="L77" t="s">
         <v>442</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" t="s">
-        <v>186</v>
-      </c>
-      <c r="I77" t="s">
-        <v>27</v>
-      </c>
-      <c r="J77" t="s">
-        <v>27</v>
-      </c>
-      <c r="K77" t="s">
-        <v>332</v>
-      </c>
-      <c r="L77" t="s">
-        <v>443</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -10391,7 +10391,7 @@
         <v>76</v>
       </c>
       <c r="O77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P77">
         <v>26</v>
@@ -10406,42 +10406,42 @@
         <v>3</v>
       </c>
       <c r="T77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>444</v>
+      </c>
+      <c r="B78" t="s">
         <v>445</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
         <v>446</v>
       </c>
-      <c r="D78" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>447</v>
       </c>
-      <c r="F78" t="s">
-        <v>448</v>
-      </c>
       <c r="G78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L78" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M78">
         <v>2</v>
@@ -10450,7 +10450,7 @@
         <v>77</v>
       </c>
       <c r="O78" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P78">
         <v>23</v>
@@ -10465,42 +10465,42 @@
         <v>2</v>
       </c>
       <c r="T78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>449</v>
+      </c>
+      <c r="B79" t="s">
         <v>450</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
         <v>451</v>
       </c>
-      <c r="D79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>452</v>
       </c>
-      <c r="F79" t="s">
-        <v>453</v>
-      </c>
       <c r="G79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M79">
         <v>3</v>
@@ -10509,7 +10509,7 @@
         <v>78</v>
       </c>
       <c r="O79" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P79">
         <v>60</v>
@@ -10524,42 +10524,42 @@
         <v>5</v>
       </c>
       <c r="T79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>454</v>
+      </c>
+      <c r="B80" t="s">
         <v>455</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
         <v>456</v>
       </c>
-      <c r="D80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>457</v>
       </c>
-      <c r="F80" t="s">
-        <v>458</v>
-      </c>
       <c r="G80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L80" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -10568,7 +10568,7 @@
         <v>79</v>
       </c>
       <c r="O80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P80">
         <v>77</v>
@@ -10583,42 +10583,42 @@
         <v>7</v>
       </c>
       <c r="T80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>459</v>
+      </c>
+      <c r="B81" t="s">
         <v>460</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
         <v>461</v>
       </c>
-      <c r="D81" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>462</v>
       </c>
-      <c r="F81" t="s">
-        <v>463</v>
-      </c>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K81" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L81" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M81">
         <v>2</v>
@@ -10627,7 +10627,7 @@
         <v>80</v>
       </c>
       <c r="O81" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P81">
         <v>84</v>
@@ -10642,42 +10642,42 @@
         <v>7</v>
       </c>
       <c r="T81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>464</v>
+      </c>
+      <c r="B82" t="s">
         <v>465</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
         <v>466</v>
       </c>
-      <c r="D82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>467</v>
       </c>
-      <c r="F82" t="s">
-        <v>468</v>
-      </c>
       <c r="G82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K82" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L82" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M82">
         <v>3</v>
@@ -10686,7 +10686,7 @@
         <v>81</v>
       </c>
       <c r="O82" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P82">
         <v>83</v>
@@ -10701,42 +10701,42 @@
         <v>10</v>
       </c>
       <c r="T82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>469</v>
+      </c>
+      <c r="B83" t="s">
         <v>470</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
         <v>471</v>
       </c>
-      <c r="D83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>472</v>
       </c>
-      <c r="F83" t="s">
-        <v>473</v>
-      </c>
       <c r="G83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -10745,7 +10745,7 @@
         <v>82</v>
       </c>
       <c r="O83" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P83">
         <v>43</v>
@@ -10760,42 +10760,42 @@
         <v>4</v>
       </c>
       <c r="T83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>474</v>
+      </c>
+      <c r="B84" t="s">
         <v>475</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
         <v>476</v>
       </c>
-      <c r="D84" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>477</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s">
+        <v>185</v>
+      </c>
+      <c r="I84" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" t="s">
+        <v>26</v>
+      </c>
+      <c r="K84" t="s">
+        <v>331</v>
+      </c>
+      <c r="L84" t="s">
         <v>478</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
-      <c r="H84" t="s">
-        <v>186</v>
-      </c>
-      <c r="I84" t="s">
-        <v>27</v>
-      </c>
-      <c r="J84" t="s">
-        <v>27</v>
-      </c>
-      <c r="K84" t="s">
-        <v>332</v>
-      </c>
-      <c r="L84" t="s">
-        <v>479</v>
       </c>
       <c r="M84">
         <v>2</v>
@@ -10804,7 +10804,7 @@
         <v>83</v>
       </c>
       <c r="O84" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P84">
         <v>37</v>
@@ -10819,42 +10819,42 @@
         <v>4</v>
       </c>
       <c r="T84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>480</v>
+      </c>
+      <c r="B85" t="s">
         <v>481</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
         <v>482</v>
       </c>
-      <c r="D85" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>483</v>
       </c>
-      <c r="F85" t="s">
-        <v>484</v>
-      </c>
       <c r="G85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K85" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L85" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M85">
         <v>3</v>
@@ -10863,7 +10863,7 @@
         <v>84</v>
       </c>
       <c r="O85" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P85">
         <v>65</v>
@@ -10878,42 +10878,42 @@
         <v>6</v>
       </c>
       <c r="T85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>485</v>
+      </c>
+      <c r="B86" t="s">
         <v>486</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
         <v>487</v>
       </c>
-      <c r="D86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>488</v>
       </c>
-      <c r="F86" t="s">
-        <v>489</v>
-      </c>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L86" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -10922,7 +10922,7 @@
         <v>85</v>
       </c>
       <c r="O86" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P86">
         <v>80</v>
@@ -10937,42 +10937,42 @@
         <v>7</v>
       </c>
       <c r="T86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>490</v>
+      </c>
+      <c r="B87" t="s">
         <v>491</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
         <v>492</v>
       </c>
-      <c r="D87" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>493</v>
       </c>
-      <c r="F87" t="s">
-        <v>494</v>
-      </c>
       <c r="G87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K87" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L87" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M87">
         <v>2</v>
@@ -10981,7 +10981,7 @@
         <v>86</v>
       </c>
       <c r="O87" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P87">
         <v>116</v>
@@ -10996,42 +10996,42 @@
         <v>10</v>
       </c>
       <c r="T87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>495</v>
+      </c>
+      <c r="B88" t="s">
         <v>496</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" t="s">
         <v>497</v>
       </c>
-      <c r="D88" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>498</v>
       </c>
-      <c r="F88" t="s">
-        <v>499</v>
-      </c>
       <c r="G88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L88" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M88">
         <v>3</v>
@@ -11040,7 +11040,7 @@
         <v>87</v>
       </c>
       <c r="O88" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P88">
         <v>101</v>
@@ -11055,42 +11055,42 @@
         <v>9</v>
       </c>
       <c r="T88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>500</v>
+      </c>
+      <c r="B89" t="s">
         <v>501</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
         <v>502</v>
       </c>
-      <c r="D89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>503</v>
       </c>
-      <c r="F89" t="s">
-        <v>504</v>
-      </c>
       <c r="G89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L89" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -11099,7 +11099,7 @@
         <v>88</v>
       </c>
       <c r="O89" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P89">
         <v>48</v>
@@ -11114,42 +11114,42 @@
         <v>4</v>
       </c>
       <c r="T89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>505</v>
+      </c>
+      <c r="B90" t="s">
         <v>506</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" t="s">
         <v>507</v>
       </c>
-      <c r="D90" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>508</v>
       </c>
-      <c r="F90" t="s">
-        <v>509</v>
-      </c>
       <c r="G90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L90" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M90">
         <v>2</v>
@@ -11158,7 +11158,7 @@
         <v>89</v>
       </c>
       <c r="O90" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P90">
         <v>19</v>
@@ -11173,42 +11173,42 @@
         <v>2</v>
       </c>
       <c r="T90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>510</v>
+      </c>
+      <c r="B91" t="s">
         <v>511</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
         <v>512</v>
       </c>
-      <c r="D91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>513</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s">
+        <v>185</v>
+      </c>
+      <c r="I91" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91" t="s">
+        <v>26</v>
+      </c>
+      <c r="K91" t="s">
+        <v>331</v>
+      </c>
+      <c r="L91" t="s">
         <v>514</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" t="s">
-        <v>186</v>
-      </c>
-      <c r="I91" t="s">
-        <v>27</v>
-      </c>
-      <c r="J91" t="s">
-        <v>27</v>
-      </c>
-      <c r="K91" t="s">
-        <v>332</v>
-      </c>
-      <c r="L91" t="s">
-        <v>515</v>
       </c>
       <c r="M91">
         <v>3</v>
@@ -11217,7 +11217,7 @@
         <v>90</v>
       </c>
       <c r="O91" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P91">
         <v>45</v>
@@ -11232,42 +11232,42 @@
         <v>4</v>
       </c>
       <c r="T91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>516</v>
+      </c>
+      <c r="B92" t="s">
         <v>517</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="s">
         <v>518</v>
       </c>
-      <c r="D92" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>519</v>
       </c>
-      <c r="F92" t="s">
-        <v>520</v>
-      </c>
       <c r="G92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K92" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L92" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -11276,7 +11276,7 @@
         <v>91</v>
       </c>
       <c r="O92" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P92">
         <v>13</v>
@@ -11291,42 +11291,42 @@
         <v>2</v>
       </c>
       <c r="T92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>521</v>
+      </c>
+      <c r="B93" t="s">
         <v>522</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
         <v>523</v>
       </c>
-      <c r="D93" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>524</v>
       </c>
-      <c r="F93" t="s">
-        <v>525</v>
-      </c>
       <c r="G93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L93" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M93">
         <v>2</v>
@@ -11335,7 +11335,7 @@
         <v>92</v>
       </c>
       <c r="O93" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P93">
         <v>34</v>
@@ -11350,42 +11350,42 @@
         <v>3</v>
       </c>
       <c r="T93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>526</v>
+      </c>
+      <c r="B94" t="s">
         <v>527</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
         <v>528</v>
       </c>
-      <c r="D94" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>529</v>
       </c>
-      <c r="F94" t="s">
-        <v>530</v>
-      </c>
       <c r="G94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L94" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M94">
         <v>3</v>
@@ -11394,7 +11394,7 @@
         <v>93</v>
       </c>
       <c r="O94" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P94">
         <v>58</v>
@@ -11409,42 +11409,42 @@
         <v>5</v>
       </c>
       <c r="T94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>531</v>
+      </c>
+      <c r="B95" t="s">
         <v>532</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
         <v>533</v>
       </c>
-      <c r="D95" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>534</v>
       </c>
-      <c r="F95" t="s">
-        <v>535</v>
-      </c>
       <c r="G95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K95" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L95" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -11453,7 +11453,7 @@
         <v>94</v>
       </c>
       <c r="O95" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P95">
         <v>17</v>
@@ -11468,42 +11468,42 @@
         <v>2</v>
       </c>
       <c r="T95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>536</v>
+      </c>
+      <c r="B96" t="s">
         <v>537</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" t="s">
         <v>538</v>
       </c>
-      <c r="D96" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>539</v>
       </c>
-      <c r="F96" t="s">
-        <v>540</v>
-      </c>
       <c r="G96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K96" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L96" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M96">
         <v>2</v>
@@ -11512,7 +11512,7 @@
         <v>95</v>
       </c>
       <c r="O96" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="P96">
         <v>94</v>
@@ -11527,42 +11527,42 @@
         <v>8</v>
       </c>
       <c r="T96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>541</v>
+      </c>
+      <c r="B97" t="s">
         <v>542</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
         <v>543</v>
       </c>
-      <c r="D97" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>544</v>
       </c>
-      <c r="F97" t="s">
-        <v>545</v>
-      </c>
       <c r="G97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L97" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M97">
         <v>3</v>
@@ -11571,7 +11571,7 @@
         <v>96</v>
       </c>
       <c r="O97" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P97">
         <v>88</v>
@@ -11586,42 +11586,42 @@
         <v>8</v>
       </c>
       <c r="T97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>546</v>
+      </c>
+      <c r="B98" t="s">
         <v>547</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
         <v>548</v>
       </c>
-      <c r="D98" t="s">
-        <v>22</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>549</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
+        <v>83</v>
+      </c>
+      <c r="H98" t="s">
+        <v>185</v>
+      </c>
+      <c r="I98" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" t="s">
+        <v>26</v>
+      </c>
+      <c r="K98" t="s">
+        <v>331</v>
+      </c>
+      <c r="L98" t="s">
         <v>550</v>
-      </c>
-      <c r="G98" t="s">
-        <v>84</v>
-      </c>
-      <c r="H98" t="s">
-        <v>186</v>
-      </c>
-      <c r="I98" t="s">
-        <v>27</v>
-      </c>
-      <c r="J98" t="s">
-        <v>27</v>
-      </c>
-      <c r="K98" t="s">
-        <v>332</v>
-      </c>
-      <c r="L98" t="s">
-        <v>551</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -11630,7 +11630,7 @@
         <v>97</v>
       </c>
       <c r="O98" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P98">
         <v>98</v>
@@ -11645,42 +11645,42 @@
         <v>9</v>
       </c>
       <c r="T98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>552</v>
+      </c>
+      <c r="B99" t="s">
         <v>553</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
         <v>554</v>
       </c>
-      <c r="D99" t="s">
-        <v>22</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>555</v>
       </c>
-      <c r="F99" t="s">
-        <v>556</v>
-      </c>
       <c r="G99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H99" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K99" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L99" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M99">
         <v>2</v>
@@ -11689,7 +11689,7 @@
         <v>98</v>
       </c>
       <c r="O99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P99">
         <v>110</v>
@@ -11704,42 +11704,42 @@
         <v>10</v>
       </c>
       <c r="T99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>557</v>
+      </c>
+      <c r="B100" t="s">
         <v>558</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
         <v>559</v>
       </c>
-      <c r="D100" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>560</v>
       </c>
-      <c r="F100" t="s">
-        <v>561</v>
-      </c>
       <c r="G100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L100" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M100">
         <v>3</v>
@@ -11748,7 +11748,7 @@
         <v>99</v>
       </c>
       <c r="O100" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P100">
         <v>79</v>
@@ -11763,42 +11763,42 @@
         <v>7</v>
       </c>
       <c r="T100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
+        <v>562</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
         <v>563</v>
       </c>
-      <c r="D101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>564</v>
       </c>
-      <c r="F101" t="s">
-        <v>565</v>
-      </c>
       <c r="G101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L101" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -11807,7 +11807,7 @@
         <v>100</v>
       </c>
       <c r="O101" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P101">
         <v>107</v>
@@ -11822,42 +11822,42 @@
         <v>9</v>
       </c>
       <c r="T101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B102" t="s">
+        <v>566</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
         <v>567</v>
       </c>
-      <c r="D102" t="s">
-        <v>22</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>568</v>
       </c>
-      <c r="F102" t="s">
-        <v>569</v>
-      </c>
       <c r="G102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L102" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M102">
         <v>2</v>
@@ -11866,7 +11866,7 @@
         <v>101</v>
       </c>
       <c r="O102" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P102">
         <v>91</v>
@@ -11881,42 +11881,42 @@
         <v>8</v>
       </c>
       <c r="T102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B103" t="s">
+        <v>570</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
         <v>571</v>
       </c>
-      <c r="D103" t="s">
-        <v>22</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>572</v>
       </c>
-      <c r="F103" t="s">
-        <v>573</v>
-      </c>
       <c r="G103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K103" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L103" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M103">
         <v>3</v>
@@ -11925,7 +11925,7 @@
         <v>102</v>
       </c>
       <c r="O103" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P103">
         <v>86</v>
@@ -11940,42 +11940,42 @@
         <v>8</v>
       </c>
       <c r="T103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B104" t="s">
+        <v>574</v>
+      </c>
+      <c r="D104" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" t="s">
         <v>575</v>
       </c>
-      <c r="D104" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>576</v>
       </c>
-      <c r="F104" t="s">
-        <v>577</v>
-      </c>
       <c r="G104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K104" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L104" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -11984,7 +11984,7 @@
         <v>103</v>
       </c>
       <c r="O104" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P104">
         <v>117</v>
@@ -11999,42 +11999,42 @@
         <v>10</v>
       </c>
       <c r="T104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>578</v>
+      </c>
+      <c r="B105" t="s">
         <v>579</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" t="s">
         <v>580</v>
       </c>
-      <c r="D105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>581</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
+        <v>83</v>
+      </c>
+      <c r="H105" t="s">
+        <v>185</v>
+      </c>
+      <c r="I105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" t="s">
+        <v>26</v>
+      </c>
+      <c r="K105" t="s">
+        <v>331</v>
+      </c>
+      <c r="L105" t="s">
         <v>582</v>
-      </c>
-      <c r="G105" t="s">
-        <v>84</v>
-      </c>
-      <c r="H105" t="s">
-        <v>186</v>
-      </c>
-      <c r="I105" t="s">
-        <v>27</v>
-      </c>
-      <c r="J105" t="s">
-        <v>27</v>
-      </c>
-      <c r="K105" t="s">
-        <v>332</v>
-      </c>
-      <c r="L105" t="s">
-        <v>583</v>
       </c>
       <c r="M105">
         <v>2</v>
@@ -12043,7 +12043,7 @@
         <v>104</v>
       </c>
       <c r="O105" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P105">
         <v>1</v>
@@ -12058,42 +12058,42 @@
         <v>1</v>
       </c>
       <c r="T105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B106" t="s">
+        <v>584</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" t="s">
         <v>585</v>
       </c>
-      <c r="D106" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>586</v>
       </c>
-      <c r="F106" t="s">
-        <v>587</v>
-      </c>
       <c r="G106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K106" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M106">
         <v>3</v>
@@ -12102,7 +12102,7 @@
         <v>105</v>
       </c>
       <c r="O106" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P106">
         <v>3</v>
@@ -12117,42 +12117,42 @@
         <v>1</v>
       </c>
       <c r="T106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
+        <v>588</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" t="s">
         <v>589</v>
       </c>
-      <c r="D107" t="s">
-        <v>22</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>590</v>
       </c>
-      <c r="F107" t="s">
-        <v>591</v>
-      </c>
       <c r="G107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K107" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M107">
         <v>1</v>
@@ -12161,7 +12161,7 @@
         <v>106</v>
       </c>
       <c r="O107" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P107">
         <v>21</v>
@@ -12176,42 +12176,42 @@
         <v>2</v>
       </c>
       <c r="T107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B108" t="s">
+        <v>592</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" t="s">
         <v>593</v>
       </c>
-      <c r="D108" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>594</v>
       </c>
-      <c r="F108" t="s">
-        <v>595</v>
-      </c>
       <c r="G108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K108" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M108">
         <v>2</v>
@@ -12220,7 +12220,7 @@
         <v>107</v>
       </c>
       <c r="O108" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P108">
         <v>27</v>
@@ -12235,42 +12235,42 @@
         <v>3</v>
       </c>
       <c r="T108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>596</v>
+      </c>
+      <c r="B109" t="s">
         <v>597</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" t="s">
         <v>598</v>
       </c>
-      <c r="D109" t="s">
-        <v>22</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>599</v>
       </c>
-      <c r="F109" t="s">
-        <v>600</v>
-      </c>
       <c r="G109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K109" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M109">
         <v>3</v>
@@ -12279,7 +12279,7 @@
         <v>108</v>
       </c>
       <c r="O109" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P109">
         <v>108</v>
@@ -12294,42 +12294,42 @@
         <v>9</v>
       </c>
       <c r="T109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B110" t="s">
+        <v>600</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" t="s">
         <v>601</v>
       </c>
-      <c r="D110" t="s">
-        <v>22</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>602</v>
       </c>
-      <c r="F110" t="s">
-        <v>603</v>
-      </c>
       <c r="G110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H110" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -12338,7 +12338,7 @@
         <v>109</v>
       </c>
       <c r="O110" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P110">
         <v>112</v>
@@ -12353,42 +12353,42 @@
         <v>10</v>
       </c>
       <c r="T110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B111" t="s">
+        <v>604</v>
+      </c>
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" t="s">
         <v>605</v>
       </c>
-      <c r="D111" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>606</v>
       </c>
-      <c r="F111" t="s">
-        <v>607</v>
-      </c>
       <c r="G111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H111" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K111" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M111">
         <v>2</v>
@@ -12397,7 +12397,7 @@
         <v>110</v>
       </c>
       <c r="O111" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P111">
         <v>14</v>
@@ -12412,42 +12412,42 @@
         <v>2</v>
       </c>
       <c r="T111" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B112" t="s">
+        <v>608</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
         <v>609</v>
       </c>
-      <c r="D112" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>610</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
+        <v>83</v>
+      </c>
+      <c r="H112" t="s">
+        <v>185</v>
+      </c>
+      <c r="I112" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" t="s">
+        <v>26</v>
+      </c>
+      <c r="K112" t="s">
+        <v>331</v>
+      </c>
+      <c r="L112" t="s">
         <v>611</v>
-      </c>
-      <c r="G112" t="s">
-        <v>84</v>
-      </c>
-      <c r="H112" t="s">
-        <v>186</v>
-      </c>
-      <c r="I112" t="s">
-        <v>27</v>
-      </c>
-      <c r="J112" t="s">
-        <v>27</v>
-      </c>
-      <c r="K112" t="s">
-        <v>332</v>
-      </c>
-      <c r="L112" t="s">
-        <v>612</v>
       </c>
       <c r="M112">
         <v>3</v>
@@ -12456,7 +12456,7 @@
         <v>111</v>
       </c>
       <c r="O112" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P112">
         <v>11</v>
@@ -12471,42 +12471,42 @@
         <v>1</v>
       </c>
       <c r="T112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B113" t="s">
+        <v>613</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" t="s">
         <v>614</v>
       </c>
-      <c r="D113" t="s">
-        <v>22</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>615</v>
       </c>
-      <c r="F113" t="s">
-        <v>616</v>
-      </c>
       <c r="G113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H113" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K113" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L113" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M113">
         <v>1</v>
@@ -12515,7 +12515,7 @@
         <v>112</v>
       </c>
       <c r="O113" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P113">
         <v>24</v>
@@ -12530,42 +12530,42 @@
         <v>2</v>
       </c>
       <c r="T113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B114" t="s">
+        <v>617</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" t="s">
         <v>618</v>
       </c>
-      <c r="D114" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>619</v>
       </c>
-      <c r="F114" t="s">
-        <v>620</v>
-      </c>
       <c r="G114" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H114" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K114" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L114" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M114">
         <v>2</v>
@@ -12574,7 +12574,7 @@
         <v>113</v>
       </c>
       <c r="O114" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P114">
         <v>46</v>
@@ -12589,42 +12589,42 @@
         <v>4</v>
       </c>
       <c r="T114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>621</v>
+      </c>
+      <c r="B115" t="s">
         <v>622</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" t="s">
         <v>623</v>
       </c>
-      <c r="D115" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>624</v>
       </c>
-      <c r="F115" t="s">
-        <v>625</v>
-      </c>
       <c r="G115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H115" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K115" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L115" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M115">
         <v>3</v>
@@ -12633,7 +12633,7 @@
         <v>114</v>
       </c>
       <c r="O115" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P115">
         <v>36</v>
@@ -12648,42 +12648,42 @@
         <v>3</v>
       </c>
       <c r="T115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B116" t="s">
+        <v>626</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" t="s">
         <v>627</v>
       </c>
-      <c r="D116" t="s">
-        <v>22</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>628</v>
       </c>
-      <c r="F116" t="s">
-        <v>629</v>
-      </c>
       <c r="G116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H116" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L116" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M116">
         <v>1</v>
@@ -12692,7 +12692,7 @@
         <v>115</v>
       </c>
       <c r="O116" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P116">
         <v>114</v>
@@ -12707,42 +12707,42 @@
         <v>10</v>
       </c>
       <c r="T116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B117" t="s">
+        <v>629</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" t="s">
         <v>630</v>
       </c>
-      <c r="D117" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>631</v>
       </c>
-      <c r="F117" t="s">
-        <v>632</v>
-      </c>
       <c r="G117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H117" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K117" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L117" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M117">
         <v>2</v>
@@ -12751,7 +12751,7 @@
         <v>116</v>
       </c>
       <c r="O117" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P117">
         <v>104</v>
@@ -12766,42 +12766,42 @@
         <v>9</v>
       </c>
       <c r="T117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B118" t="s">
+        <v>632</v>
+      </c>
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" t="s">
         <v>633</v>
       </c>
-      <c r="D118" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>634</v>
       </c>
-      <c r="F118" t="s">
-        <v>635</v>
-      </c>
       <c r="G118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K118" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L118" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M118">
         <v>3</v>
@@ -12810,7 +12810,7 @@
         <v>117</v>
       </c>
       <c r="O118" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P118">
         <v>74</v>
@@ -12825,7 +12825,7 @@
         <v>7</v>
       </c>
       <c r="T118" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -12871,61 +12871,61 @@
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
         <v>641</v>
       </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" t="s">
         <v>642</v>
       </c>
-      <c r="H4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" t="s">
-        <v>643</v>
-      </c>
       <c r="K4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -12951,7 +12951,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -12965,7 +12965,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -12979,7 +12979,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -13035,7 +13035,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -13049,7 +13049,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -13077,7 +13077,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -13112,7 +13112,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -13126,7 +13126,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -13140,7 +13140,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -13154,7 +13154,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -13168,7 +13168,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -13182,7 +13182,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -13196,7 +13196,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -13210,7 +13210,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -13224,7 +13224,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -13238,7 +13238,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -13266,7 +13266,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -13280,7 +13280,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -13294,7 +13294,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -13308,7 +13308,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -13322,7 +13322,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -13336,7 +13336,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -13350,7 +13350,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -13364,7 +13364,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -13404,7 +13404,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -13418,7 +13418,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -13432,7 +13432,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -13446,7 +13446,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -13460,7 +13460,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -13474,7 +13474,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -13488,7 +13488,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -13502,7 +13502,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -13516,7 +13516,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -13542,7 +13542,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -13556,7 +13556,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -13570,7 +13570,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -13584,7 +13584,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -13598,7 +13598,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -13612,7 +13612,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -13626,7 +13626,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -13640,7 +13640,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -13654,7 +13654,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -13668,7 +13668,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B55">
         <v>30</v>

--- a/input/samples.xlsx
+++ b/input/samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiller/R/250902_mNSC/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86703A2-451E-9C42-B3C5-0BF45ADC7B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9778EA9E-ACBB-2B4F-9820-0AD4FF87AC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="26240" windowHeight="16360" xr2:uid="{870591EA-65CE-6344-A0E3-82EFB7AA9698}"/>
   </bookViews>
@@ -5835,8 +5835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DCFF40-CB8B-A449-801E-B17EDF8865CB}">
   <dimension ref="A1:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K1:K118"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5851,7 +5851,7 @@
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
